--- a/regions_data/Elektryczność/pie_chart_data/2_Zużycie ze względu na sektor.xlsx
+++ b/regions_data/Elektryczność/pie_chart_data/2_Zużycie ze względu na sektor.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t xml:space="preserve">Nazwa wycinka</t>
+  </si>
   <si>
     <t xml:space="preserve">Dolnośląskie</t>
   </si>
@@ -234,21 +237,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="B1:S8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.6632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="30.6683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.7704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
@@ -296,385 +298,388 @@
       <c r="Q1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2"/>
+      <c r="R1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>1135</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="D2" s="3" t="n">
         <v>117</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="E2" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="F2" s="3" t="n">
         <v>76</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="G2" s="3" t="n">
         <v>3494</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="H2" s="3" t="n">
         <v>509</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="I2" s="3" t="n">
         <v>1935</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="J2" s="3" t="n">
         <v>631</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="K2" s="3" t="n">
         <v>115</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="L2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="M2" s="3" t="n">
         <v>216</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="N2" s="3" t="n">
         <v>2682</v>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="O2" s="3" t="n">
         <v>648</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="P2" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="P2" s="3" t="n">
+      <c r="Q2" s="3" t="n">
         <v>1165</v>
       </c>
-      <c r="Q2" s="3" t="n">
+      <c r="R2" s="3" t="n">
         <v>576</v>
       </c>
-      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>2138</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="D3" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="E3" s="3" t="n">
         <v>297</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="F3" s="3" t="n">
         <v>116</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="G3" s="3" t="n">
         <v>1221</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="H3" s="3" t="n">
         <v>294</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="I3" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="J3" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="K3" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="L3" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="M3" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="N3" s="3" t="n">
         <v>3771</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="O3" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="P3" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="P3" s="3" t="n">
+      <c r="Q3" s="3" t="n">
         <v>542</v>
       </c>
-      <c r="Q3" s="3" t="n">
+      <c r="R3" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>3465</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="D4" s="3" t="n">
         <v>3740</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="E4" s="3" t="n">
         <v>2508</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="F4" s="3" t="n">
         <v>1539</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="G4" s="3" t="n">
         <v>2084</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="H4" s="3" t="n">
         <v>4153</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="I4" s="3" t="n">
         <v>8669</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="J4" s="3" t="n">
         <v>1993</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="K4" s="3" t="n">
         <v>1858</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="L4" s="3" t="n">
         <v>804</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="M4" s="3" t="n">
         <v>2745</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="N4" s="3" t="n">
         <v>7862</v>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="O4" s="3" t="n">
         <v>1925</v>
       </c>
-      <c r="O4" s="3" t="n">
+      <c r="P4" s="3" t="n">
         <v>1009</v>
       </c>
-      <c r="P4" s="3" t="n">
+      <c r="Q4" s="3" t="n">
         <v>3673</v>
       </c>
-      <c r="Q4" s="3" t="n">
+      <c r="R4" s="3" t="n">
         <v>1965</v>
       </c>
-      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>316</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="D5" s="3" t="n">
         <v>135</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="E5" s="3" t="n">
         <v>73</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="F5" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="G5" s="3" t="n">
         <v>144</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="H5" s="3" t="n">
         <v>221</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="I5" s="3" t="n">
         <v>398</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="J5" s="3" t="n">
         <v>57</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="K5" s="3" t="n">
         <v>85</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="L5" s="3" t="n">
         <v>71</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="M5" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="N5" s="3" t="n">
         <v>478</v>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="O5" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="P5" s="3" t="n">
         <v>112</v>
       </c>
-      <c r="P5" s="3" t="n">
+      <c r="Q5" s="3" t="n">
         <v>233</v>
       </c>
-      <c r="Q5" s="3" t="n">
+      <c r="R5" s="3" t="n">
         <v>143</v>
       </c>
-      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>265</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="D6" s="3" t="n">
         <v>196</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="E6" s="3" t="n">
         <v>110</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="F6" s="3" t="n">
         <v>88</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="G6" s="3" t="n">
         <v>385</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="H6" s="3" t="n">
         <v>268</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="I6" s="3" t="n">
         <v>1098</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="J6" s="3" t="n">
         <v>93</v>
       </c>
-      <c r="J6" s="3" t="n">
+      <c r="K6" s="3" t="n">
         <v>165</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="L6" s="3" t="n">
         <v>82</v>
       </c>
-      <c r="L6" s="3" t="n">
+      <c r="M6" s="3" t="n">
         <v>371</v>
       </c>
-      <c r="M6" s="3" t="n">
+      <c r="N6" s="3" t="n">
         <v>316</v>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="O6" s="3" t="n">
         <v>123</v>
       </c>
-      <c r="O6" s="3" t="n">
+      <c r="P6" s="3" t="n">
         <v>78</v>
       </c>
-      <c r="P6" s="3" t="n">
+      <c r="Q6" s="3" t="n">
         <v>452</v>
       </c>
-      <c r="Q6" s="3" t="n">
+      <c r="R6" s="3" t="n">
         <v>218</v>
       </c>
-      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>2130</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="D7" s="3" t="n">
         <v>1459</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="E7" s="3" t="n">
         <v>1402</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="F7" s="3" t="n">
         <v>688</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="G7" s="3" t="n">
         <v>1892</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="H7" s="3" t="n">
         <v>2672</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="I7" s="3" t="n">
         <v>4635</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="J7" s="3" t="n">
         <v>780</v>
       </c>
-      <c r="J7" s="3" t="n">
+      <c r="K7" s="3" t="n">
         <v>1198</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="L7" s="3" t="n">
         <v>887</v>
       </c>
-      <c r="L7" s="3" t="n">
+      <c r="M7" s="3" t="n">
         <v>1617</v>
       </c>
-      <c r="M7" s="3" t="n">
+      <c r="N7" s="3" t="n">
         <v>3530</v>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="O7" s="3" t="n">
         <v>755</v>
       </c>
-      <c r="O7" s="3" t="n">
+      <c r="P7" s="3" t="n">
         <v>925</v>
       </c>
-      <c r="P7" s="3" t="n">
+      <c r="Q7" s="3" t="n">
         <v>2566</v>
       </c>
-      <c r="Q7" s="3" t="n">
+      <c r="R7" s="3" t="n">
         <v>1146</v>
       </c>
-      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3" t="n">
         <v>3446</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="D8" s="3" t="n">
         <v>2047</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="E8" s="3" t="n">
         <v>1341</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="F8" s="3" t="n">
         <v>946</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="G8" s="3" t="n">
         <v>2638</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="H8" s="3" t="n">
         <v>4083</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="I8" s="3" t="n">
         <v>7307</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="J8" s="3" t="n">
         <v>1274</v>
       </c>
-      <c r="J8" s="3" t="n">
+      <c r="K8" s="3" t="n">
         <v>1679</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="L8" s="3" t="n">
         <v>873</v>
       </c>
-      <c r="L8" s="3" t="n">
+      <c r="M8" s="3" t="n">
         <v>2187</v>
       </c>
-      <c r="M8" s="3" t="n">
+      <c r="N8" s="3" t="n">
         <v>6226</v>
       </c>
-      <c r="N8" s="3" t="n">
+      <c r="O8" s="3" t="n">
         <v>998</v>
       </c>
-      <c r="O8" s="3" t="n">
+      <c r="P8" s="3" t="n">
         <v>1341</v>
       </c>
-      <c r="P8" s="3" t="n">
+      <c r="Q8" s="3" t="n">
         <v>3032</v>
       </c>
-      <c r="Q8" s="3" t="n">
+      <c r="R8" s="3" t="n">
         <v>1780</v>
       </c>
-      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
